--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0BBBB1-097B-4B14-BB36-F0BBE7EF2E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2BB74-7912-477B-A33B-B082CE2E45C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>OIG</t>
   </si>
@@ -260,6 +260,90 @@
   </si>
   <si>
     <t>Agua y saneamiento</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/proyectos</t>
+  </si>
+  <si>
+    <t>No tiene</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/content/undp/es/home.html</t>
+  </si>
+  <si>
+    <t>Agencia de las Naciones Unidas que trabaja para reducir la pobreza y reducir las desigualdades y la exclusión. Apoya a los países a desarrollar políticas, alianzas, habilidades de liderazgo, capacidades institucionales y resiliencia con el fin de mantener los avances del desarrollo</t>
+  </si>
+  <si>
+    <t>New York, EEUU</t>
+  </si>
+  <si>
+    <t>Individual Project Data: https://api.open.undp.org/api/projects/{project - id}.json</t>
+  </si>
+  <si>
+    <t>Project Summaries: https://api.open.undp.org/api/project_summary_{year}.json</t>
+  </si>
+  <si>
+    <t>Operating Unit Data: https://api.open.undp.org/api/units/{operating - unit}.json</t>
+  </si>
+  <si>
+    <t>Operating Unit Index: https://api.open.undp.org/api/units/operating-unit-index.json</t>
+  </si>
+  <si>
+    <t>Sublocation Location Index: https://api.open.undp.org/api/sub-location-index.json</t>
+  </si>
+  <si>
+    <t>Region Index: https://api.open.undp.org/api/region-index.json</t>
+  </si>
+  <si>
+    <t>Donor Index: https://api.open.undp.org/api/donor-index.json</t>
+  </si>
+  <si>
+    <t>Donor by Country Index: https://api.open.undp.org/api/donor-country-index.json</t>
+  </si>
+  <si>
+    <t>Focus Area Index: https://api.open.undp.org/api/focus-area-index.json</t>
+  </si>
+  <si>
+    <t>Aid Classification Index: https://api.open.undp.org/api/crs-index.json</t>
+  </si>
+  <si>
+    <t>SDG Index: https://api.open.undp.org/api/sdg-index.json</t>
+  </si>
+  <si>
+    <t>Individual Output Data: https://api.open.undp.org/api/outputs/{output - id}.json</t>
+  </si>
+  <si>
+    <t>SDG Target index: https://api.open.undp.org/api/target-index.json</t>
+  </si>
+  <si>
+    <t>Individual SDG Target index: https://api.open.undp.org/api/target-index/{sdg - id}.json</t>
+  </si>
+  <si>
+    <t>Signature solution index: https://api.open.undp.org/api/signature-solutions-index.json</t>
+  </si>
+  <si>
+    <t>Our Approaches index: https://api.open.undp.org/api/our-approaches-index.json</t>
+  </si>
+  <si>
+    <t>Project Data: https://api.open.undp.org/api/project_list/?year={year}&amp;sector={sector-id}&amp;operating_unit={iso3}&amp;sdg={sdg-id}&amp;signature_solution={signature solution-id}&amp;budget_source={budget source-id}&amp;marker_type={marker-id}&amp;limit={1-1000}&amp;offset={0-count/1000}</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects</t>
+  </si>
+  <si>
+    <t>Santiago de Chile</t>
+  </si>
+  <si>
+    <t>Pobreza e inequidad</t>
+  </si>
+  <si>
+    <t>Gobernanza, construcción de la paz, crisis y resiliencia</t>
+  </si>
+  <si>
+    <t>Naturaleza, clima y energía</t>
+  </si>
+  <si>
+    <t>Equidad de género y empoderamiento de la mujer</t>
   </si>
 </sst>
 </file>
@@ -627,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B1826-CF36-436D-9E27-82918DE6448E}">
   <dimension ref="C3:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -639,6 +723,7 @@
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
@@ -722,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -731,6 +816,24 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
@@ -764,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E51-05FE-49C3-A536-8958958FC0F8}">
-  <dimension ref="C2:E27"/>
+  <dimension ref="C2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1109,35 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1035,16 +1167,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A10F3-FB57-4686-8283-E6D91395D6BD}">
-  <dimension ref="C2:F5"/>
+  <dimension ref="C2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,13 +1209,207 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
       <c r="F4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
       <c r="F5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1417,7 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{17723A36-70C9-4FE1-AC10-4E9EEB9C710A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2BB74-7912-477B-A33B-B082CE2E45C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F7D2A-F73F-4D06-A1DA-4F82798CA2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfil OIG" sheetId="1" r:id="rId1"/>
     <sheet name="Financiamiento" sheetId="2" r:id="rId2"/>
-    <sheet name="Cooperación" sheetId="3" r:id="rId3"/>
-    <sheet name="proyectos" sheetId="4" r:id="rId4"/>
-    <sheet name="Base de datos" sheetId="5" r:id="rId5"/>
+    <sheet name="BD OIG" sheetId="6" r:id="rId3"/>
+    <sheet name="BD Proyectos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>OIG</t>
   </si>
@@ -172,9 +171,6 @@
     <t>Desarrollo urbano y rural</t>
   </si>
   <si>
-    <t>pensando que poner aquí...</t>
-  </si>
-  <si>
     <t>IADB</t>
   </si>
   <si>
@@ -271,9 +267,6 @@
     <t>https://www.undp.org/content/undp/es/home.html</t>
   </si>
   <si>
-    <t>Agencia de las Naciones Unidas que trabaja para reducir la pobreza y reducir las desigualdades y la exclusión. Apoya a los países a desarrollar políticas, alianzas, habilidades de liderazgo, capacidades institucionales y resiliencia con el fin de mantener los avances del desarrollo</t>
-  </si>
-  <si>
     <t>New York, EEUU</t>
   </si>
   <si>
@@ -344,13 +337,37 @@
   </si>
   <si>
     <t>Equidad de género y empoderamiento de la mujer</t>
+  </si>
+  <si>
+    <t>Agencia de las Naciones Unidas que trabaja para reducir la pobreza y reducir las desigualdades y la exclusión. Apoya a los países a desarrollar políticas, alianzas, habilidades de liderazgo, capacidades institucionales y resiliencia con el fin de mantener los avances del desarrollo. Además contribuye a que los países alcancen los ODS</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>Fondo de las Naciones Unidas para la Infancia</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org/es</t>
+  </si>
+  <si>
+    <t>Trabaja en 190 países y territorios para salvar las vidas de los niños, para defender sus derechos y ayudarles a desarrollar su máximo potencial, desde la primera infancia hasta la adolescencia.</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/dv_index/</t>
+  </si>
+  <si>
+    <t>Link BD</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +379,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,18 +418,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -410,6 +496,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K25" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C3:K25" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EB1B435E-5B5A-4325-B742-43F93F8E44E4}" name="OIG Español"/>
+    <tableColumn id="2" xr3:uid="{3281292C-ECF8-47ED-A59F-6DD5680A01FF}" name="OIG Inglés"/>
+    <tableColumn id="3" xr3:uid="{9CEEFDF9-E18D-415C-B10C-A99BA25A7D2F}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7FB477C5-1CD0-4BCF-B1EA-9DE87FBBA647}" name="Descripción"/>
+    <tableColumn id="5" xr3:uid="{E87879A5-0C7D-44F5-B4C8-7E4CB1C311F3}" name="Link"/>
+    <tableColumn id="6" xr3:uid="{B03EA887-8D22-40E4-90D9-D5A84D31CF8D}" name="Tipo"/>
+    <tableColumn id="7" xr3:uid="{FC5DA6F9-67F4-44BE-813A-C56D4B26C0D8}" name="Alcance"/>
+    <tableColumn id="8" xr3:uid="{95FBC4D4-27AB-4D98-A4D1-D383160FE702}" name="Sede"/>
+    <tableColumn id="9" xr3:uid="{307525DD-3E27-4990-A990-F6FF86E5EF0B}" name="Oficinas regionales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B996E47A-D70B-4260-B7A7-E0B16B498536}" name="Tabla5" displayName="Tabla5" ref="C2:E40" totalsRowShown="0">
+  <autoFilter ref="C2:E40" xr:uid="{BAAE8D52-5408-4464-814A-BEEB931DE810}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B9294B55-FB80-4808-A6C1-C7A1374A8132}" name="OIG"/>
+    <tableColumn id="2" xr3:uid="{F8061DFA-214E-4707-BF52-764132DE4AFB}" name="Tipos de proyectos " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6D383B68-5596-4654-9554-111F52AB0DA9}" name="Tipos de financiamiento" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BDE5A19-197C-4AFB-9FD4-4D17FF40D860}" name="Tabla2" displayName="Tabla2" ref="C2:F23" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="C2:F23" xr:uid="{5628BADD-54A3-42F9-B1EA-F29619F39907}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6DA87B2B-AD1E-4471-BD79-833BBB30B2DC}" name="OIG"/>
+    <tableColumn id="2" xr3:uid="{4C66ED3D-DBCB-4B00-90D3-0981D373A864}" name="Link de proyectos"/>
+    <tableColumn id="3" xr3:uid="{10CBF3C1-F43E-4A90-8E46-803E2F728ED0}" name="API" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{07046CDA-7BC0-4A3E-8B65-FB69DD4DCAB7}" name="Excel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,17 +838,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B1826-CF36-436D-9E27-82918DE6448E}">
-  <dimension ref="C3:K9"/>
+  <dimension ref="C3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
@@ -727,31 +857,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -775,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -786,28 +916,28 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -818,65 +948,128 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E51-05FE-49C3-A536-8958958FC0F8}">
-  <dimension ref="C2:E31"/>
+  <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
@@ -886,7 +1079,7 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -897,7 +1090,7 @@
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -908,7 +1101,7 @@
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -919,7 +1112,7 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -968,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
@@ -979,21 +1172,21 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -1001,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
@@ -1012,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
@@ -1020,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1028,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="30" x14ac:dyDescent="0.25">
@@ -1036,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
@@ -1044,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -1052,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -1060,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -1068,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -1076,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -1084,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -1092,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -1100,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="30" x14ac:dyDescent="0.25">
@@ -1124,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -1132,32 +1325,60 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DB723-F6EE-4A5F-A762-B806D779D1B0}">
-  <dimension ref="C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D9D21-5073-4FE2-AD03-920EEB5BC38B}">
+  <dimension ref="C4:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>44</v>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1169,29 +1390,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A10F3-FB57-4686-8283-E6D91395D6BD}">
   <dimension ref="C2:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1201,11 +1423,11 @@
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -1213,126 +1435,126 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="8" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="9" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="12" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
@@ -1340,76 +1562,76 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="19" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="21" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1418,19 +1640,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78825AB-454C-49B7-8A8E-2FF634D100A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F7D2A-F73F-4D06-A1DA-4F82798CA2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83905BD0-30BA-4BCE-8ED8-1B5BA5B2B9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfil OIG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="227">
   <si>
     <t>OIG</t>
   </si>
@@ -72,18 +72,12 @@
     <t>Programa de las Naciones Unidas para el Desarrollo</t>
   </si>
   <si>
-    <t>UAID</t>
-  </si>
-  <si>
     <t>GEF</t>
   </si>
   <si>
     <t>Fondo para el Medio Ambiente Mundial</t>
   </si>
   <si>
-    <t>FMAM</t>
-  </si>
-  <si>
     <t>OIG Español</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>FCPF</t>
   </si>
   <si>
-    <t>FCCB</t>
-  </si>
-  <si>
     <t>Asociación mundial, constituida por 5 instituciones dedicadas a reducir la pobreza y el desarrollo sostenible. Es una fuente financiera para los países en desarrollo</t>
   </si>
   <si>
@@ -361,6 +352,376 @@
   </si>
   <si>
     <t>EXCEL</t>
+  </si>
+  <si>
+    <t>ACNUR</t>
+  </si>
+  <si>
+    <t>Alto Comisionado de las Naciones Unidas para los Refugiados</t>
+  </si>
+  <si>
+    <t>Se encarga de coordinar y dirigir la acción internacional para la protección de los refugiados a nivel mundial</t>
+  </si>
+  <si>
+    <t>https://www.acnur.org/el-acnur.html</t>
+  </si>
+  <si>
+    <t>Ginebra</t>
+  </si>
+  <si>
+    <t>UNHCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de graduación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro, Pequeña y Mediana empresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadenas de valor seguras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo asalariado </t>
+  </si>
+  <si>
+    <t>Contratos a personas refugiadas</t>
+  </si>
+  <si>
+    <t>ACNUR involucra directamente a las empresas y a otros actores para diseñar e implementar conceptos y programas innovadores que contribuyan a los medios de vida de las personas refugiadas. Por ejemplo:
+Trabajando con instituciones financieras con el fin de desarrollar productos financieros que puedan adaptarse a las necesidades de las personas refugiadas.
+Estableciendo vínculos con cadenas de producción globales para productos hechos por personas refugiadas.
+Vinculándose con la empresa privada para incrementar la contratación de personas refugiadas.
+El ACNUR se involucra en una serie de plataformas para recolectar evidencia, realizar investigaciones y promover la razón comercial y las mejores prácticas para la participación del sector privado con las personas refugiadas.</t>
+  </si>
+  <si>
+    <t>Los programas de graduación ofrecen un paquete integral que incluye asistencia de consumo para satisfacer las necesidades básicas, capacitación en habilidades, capital semilla u oportunidades de empleo para impulsar una actividad económica, educación financiera y acceso a ahorros, y capacitación para desarrollar confianza y reforzar habilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participación del sector privado </t>
+  </si>
+  <si>
+    <t>El ACNUR apoya a los refugiados en el desarrollo de nuevos medios de vida o reiniciar las empresas en sus países de residencia. Apoya en el servicio del desarrollo empresarial, becas de inicio e inclusión financiera.</t>
+  </si>
+  <si>
+    <t>El ACNUR ayuda a conectar a las personas que se han visto obligadas a huir con cadenas de valor seguras que ofrecen oportunidades de empleo o medios de vida, y no los expone a grandes riesgos para su seguridad o bienestar. Se fomenta la creación de empresas, oportunidades de trabajo y estrategias que beneficien a las personas refugiadas y desplazadas.</t>
+  </si>
+  <si>
+    <t>https://www.unhcr.org/data.html</t>
+  </si>
+  <si>
+    <t>http://data.unhcr.org/wiki/index.php/API_Documentation.html#_ga=2.160196221.1980526061.1603400310-925545540.1603400310</t>
+  </si>
+  <si>
+    <t>https://api.unhcr.org/docs/index.html#_ga=2.160196221.1980526061.1603400310-925545540.1603400310</t>
+  </si>
+  <si>
+    <t>https://reporting.unhcr.org/financial</t>
+  </si>
+  <si>
+    <t>PMA</t>
+  </si>
+  <si>
+    <t>WFP</t>
+  </si>
+  <si>
+    <t>Programa Mundial de alimentos</t>
+  </si>
+  <si>
+    <t>El Programa Mundial de Alimentos es la organización humanitaria líder que salva vidas y cambia vidas, brindando asistencia alimentaria en emergencias y trabajando con las comunidades para mejorar la nutrición y crear resiliencia.</t>
+  </si>
+  <si>
+    <t>https://es.wfp.org/panorama</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Acción climática</t>
+  </si>
+  <si>
+    <t>https://unwfp.maps.arcgis.com/apps/opsdashboard/index.html#/5e403a8944104b328117c67ae4afa11e</t>
+  </si>
+  <si>
+    <t>El PMA nima a la integración de diversas tecnologías, servicios y herramientas para equipar mejor a las comunidades para adaptarse a los impactos del cambio climático. Esto puede incluir la diversificación de medios de subsistencia, la protección de activos, ingresos y cultivos con seguros y acceso a servicios financieros, mejorar el acceso a los mercados y rehabilitando la tierra. También implica trabajar junto a los gobiernos para asegurar que estas iniciativas puedan incorporarse en los sistemas nacionales, incluyendo la alerta temprana, protección social y mecanismos financieros y de seguros.</t>
+  </si>
+  <si>
+    <t> Programa de compra para el progreso, (P4P, por sus siglas en inglés), el WFP (que se comprometió a obtener el 10% de sus compras alimentarias de pequeños agricultores), anima a los gobiernos nacionales y al sector privado a que compren alimentos en formas que beneficien a los pequeños agricultores.</t>
+  </si>
+  <si>
+    <t>Programa de compras para el progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza del Campo al Mercado </t>
+  </si>
+  <si>
+    <t>Busca potenciar las cadenas locales de abastecimiento</t>
+  </si>
+  <si>
+    <t>Asistencia alimentaria: efectivo, bonos y en especie</t>
+  </si>
+  <si>
+    <t>Asistencia alimentaria desde la promoción de programas de apoyo a la medida y plurianuales diseñados para elevar los indicadores nutricionales de toda una nación. Equilibramos la urgencia de aliviar el hambre aquí y ahora con el objetivo más amplio de acabar con el hambre de una vez por todas.</t>
+  </si>
+  <si>
+    <t>Cooperación SUR-SUR</t>
+  </si>
+  <si>
+    <t>Esta cooperación cubre el intercambio directo de saber, experiencias, habilidades, recursos y conocimientos técnicos entre los países en desarrollo, a menudo asistidos por un donante o por una organización multilateral tal como el PMA. Este asesoramiento "triangular" puede asumir la forma de financiación, entrenamiento, gestión, sistemas tecnológicos, u otros tipos de apoyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda en emergencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinda asistencia alimentaria en situaciones de conflictos. </t>
+  </si>
+  <si>
+    <t>UNODC</t>
+  </si>
+  <si>
+    <t>La Oficina de las Naciones Unidas contra la Droga y el Delito ayuda a los Estados Miembros en su lucha contra las drogas, el crimen y el terrorismo.</t>
+  </si>
+  <si>
+    <t>UNFPA</t>
+  </si>
+  <si>
+    <t>Sede en Nueva York (Estados Unidos de América)</t>
+  </si>
+  <si>
+    <t>El Fondo de Población de las Naciones Unidas es la agencia de las Naciones Unidas líder en ofrecer un mundo en el que cada embarazo es deseado; cada nacimiento, seguro y el potencial de cada joven, desarrollado.</t>
+  </si>
+  <si>
+    <t>PNUMA</t>
+  </si>
+  <si>
+    <t>Sede en Nairobi (Kenya)</t>
+  </si>
+  <si>
+    <t>El Programa de Naciones Unidas para el Medio Ambiente fundado en 1972, es la voz del medio ambiente. El PNUMA actúa a modo de catalizador, abogado y facilitador del uso racional del medio ambiente mundial y su desarrollo sostenible.</t>
+  </si>
+  <si>
+    <t>ONU Mujeres</t>
+  </si>
+  <si>
+    <t>ONU Mujeres se centra de forma exclusiva en la igualdad de género y el empoderamiento de las mujeres.</t>
+  </si>
+  <si>
+    <t>Universidad de las Naciones Unidas (UNU)</t>
+  </si>
+  <si>
+    <t>Sede en Tokio (Japón)</t>
+  </si>
+  <si>
+    <t>La Universidad de las Naciones Unidas fue establecida por la Asamblea General de la ONU con el mandato de llevar a cabo "investigación de los apremiantes problemas mundiales de supervivencia, desarrollo y bienestar humanos". En la actualidad, la Universidad cuenta con 14 institutos de investigación y capacitación en 12 países. Como centro de estudios del sistema de las Naciones Unidas, la Universidad de la ONU proporciona a los encargados de formular políticas estudios de investigación de alta calidad y basados en pruebas y asesoramiento pragmático.</t>
+  </si>
+  <si>
+    <t>ONU-Hábitat</t>
+  </si>
+  <si>
+    <t>El Programa de las Naciones Unidas para los Asentamientos (ONU-Hábitat) tiene el mandato de promover pueblos y ciudades social y ambientalmente sostenibles con el objetivo de proporcionar una vivienda adecuada para todos.</t>
+  </si>
+  <si>
+    <t>FMI</t>
+  </si>
+  <si>
+    <t>Sede en Washington, D.C. (Estados Unidos de América)</t>
+  </si>
+  <si>
+    <t>El Fondo Monetario Internacional promueve el crecimiento económico y el empleo, para lo que facilita tanto asistencia financiera temporal a los países, a los que ayuda a equilibrar su balanza de pagos, como asistencia técnica. El FMI cuenta, actualmente, con 28 mil millones de dólares en préstamos pendientes en 74 naciones.</t>
+  </si>
+  <si>
+    <t>OMS</t>
+  </si>
+  <si>
+    <t>Sede en Ginebra (Suiza)</t>
+  </si>
+  <si>
+    <t>La Organización Mundial de la Salud es la autoridad directiva y coordinadora en asuntos de sanidad internacional en el sistema de las Naciones Unidas. El objetivo de la OMS es alcanzar el grado más alto posible de salud para todos. La salud, tal como se define en la Constitución de la OMS, "es un estado de completo bienestar físico, mental y social, y no solamente la ausencia de afecciones o enfermedades". Es responsable de las campañas de vacunación globales, de responder a las emergencias de la salud pública, de la defensa contra la pandemia de la gripe y de liderar el camino de las campañas de erradicación contra las enfermedades mortales como la polio o la malaria. El año pasado, la OMS eliminó la gripe aviar en Vietnam, borró dos países de la lista de las naciones donde la polio es endémica, y proporcionó asistencia humanitaria en el Líbano y Darfur.</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
+    <t>Sede en París (Francia)</t>
+  </si>
+  <si>
+    <t>La Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura va desde la formación de profesores con el fin de ayudarles a mejorar la educación mundial a la protección de lugares clave tanto histórica como culturalmente en todo el mundo. La UNESCO añadió, este año, 26 nuevos Patrimonio de la Humanidad a la lista de tesoros irreemplazables que serán protegidos de los viajeros de hoy en día y de las futuras generaciones.</t>
+  </si>
+  <si>
+    <t>OIT</t>
+  </si>
+  <si>
+    <t>La Organización Internacional del Trabajo promueve los derechos laborales internacionales a través de la formulación de estándares internacionales en la libertad de asociación, los convenios colectivos, la abolición del trabajo forzado y la igualdad de oportunidades y tratamiento</t>
+  </si>
+  <si>
+    <t>FAO</t>
+  </si>
+  <si>
+    <t>Sede en Roma (Italia)</t>
+  </si>
+  <si>
+    <t>La Organización de las Naciones Unidas para la Alimentación y la Agricultura dirige esfuerzos internacionales en la lucha contra el hambre. Constituye tanto un foro para la negociación de acuerdos entre los países desarrollados y los países en desarrollo como una fuente de información y conocimiento técnico para ayudar al desarrollo.</t>
+  </si>
+  <si>
+    <t>FIDA</t>
+  </si>
+  <si>
+    <t>El Fondo Internacional de Desarrollo Agrícola, desde su creación en 1977, se ha centrado únicamente en la reducción de la pobreza rural, en trabajar con poblaciones rurales pobres en países en desarrollo con el fin de eliminar la pobreza, el hambre y la malnutrición; en aumentar su productividad y sus ingresos y en mejorar su calidad de vida.</t>
+  </si>
+  <si>
+    <t>OMI</t>
+  </si>
+  <si>
+    <t>La Organización Marítima Internacional ha creado un amplio marco regulador del transporte marítimo con el fin de abordar cuestiones como la seguridad y el medio ambiente, asuntos jurídicos, cooperación técnica, seguridad y eficiencia.</t>
+  </si>
+  <si>
+    <t>OMM</t>
+  </si>
+  <si>
+    <t>La Organización Meteorológica Mundial facilita el intercambio internacional gratuito de datos e información meteorológicos, así como el fomento de su uso en la aviación, la navegación, seguridad y la agricultura, entre otros.</t>
+  </si>
+  <si>
+    <t>OMPI</t>
+  </si>
+  <si>
+    <t>La Organización Mundial de la Propiedad Intelectual protege la propiedad intelectual en el mundo a través de 23 tratados internacionales.</t>
+  </si>
+  <si>
+    <t>OACI</t>
+  </si>
+  <si>
+    <t>Sede en Montreal (Canadá)</t>
+  </si>
+  <si>
+    <t>La Organización de Aviación Civil Internacional establece unas reglas internacionales sobre la navegación aérea, la investigación de los accidentes aéreos y los procedimientos de pasos fronterizos aéreos.</t>
+  </si>
+  <si>
+    <t>UIT</t>
+  </si>
+  <si>
+    <t>La Unión Internacional de Telecomunicaciones es la agencia especializada en las tecnologías de información y comunicación. Está comprometida con la conexión de todas las personas del mundo, sin importar dónde viven o cuáles sean los medios. Gracias a su trabajo, protegemos y apoyamos el derecho fundamental de todas las personas de comunicarse.</t>
+  </si>
+  <si>
+    <t>ONUDI</t>
+  </si>
+  <si>
+    <t>Sede en Vienna (Austria)</t>
+  </si>
+  <si>
+    <t>La Organización de las Naciones Unidas para el Desarrollo Industrial es la agencia especializada que promueve el desarrollo industrial y busca reducir la pobreza, la globalización inclusiva y la sostenibilidad del medio ambiente.</t>
+  </si>
+  <si>
+    <t>UPU</t>
+  </si>
+  <si>
+    <t>Sede en Bern (Suiza)</t>
+  </si>
+  <si>
+    <t>La Unión Postal Universal es el foro principal para la cooperación entre los organismos del sector postal. Ayuda a garantizar una red universal auténtica de productos y servicios actualizados.</t>
+  </si>
+  <si>
+    <t>OMT</t>
+  </si>
+  <si>
+    <t>Sede en Madrid (España)</t>
+  </si>
+  <si>
+    <t>La Organización Mundial del Turismo es la agencia encargada de la promoción del turismo responsable, sostenible y universalmente accesible.</t>
+  </si>
+  <si>
+    <t>ONUSIDA</t>
+  </si>
+  <si>
+    <t>El Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA aúna los esfuerzos de 11 organizaciones de las Naciones Unidas (ACNUR, UNICEF, PMA, PNUD, UNFPA, UNODC, ONU Mujeres, OIT, UNESCO, OMS y Banco Mundial) y trabaja en estrecha colaboración con asociados mundiales y nacionales para poner fin a la epidemia de sida para el 2030 como parte de los Objetivos de Desarrollo Sostenible.</t>
+  </si>
+  <si>
+    <t>UNDRR</t>
+  </si>
+  <si>
+    <t>La Oficina de las Naciones Unidas para la Reducción del Riesgo de Desastres sirve centro de coordinación en materia de reducción de desastres en el marco del sistema de las Naciones Unidas para coordinar los esfuerzos en la prevención de catástrofes y la mitigación de sus consecuencias.</t>
+  </si>
+  <si>
+    <t>UNOPS</t>
+  </si>
+  <si>
+    <t>Sede en Copenhague (Dinamarca)</t>
+  </si>
+  <si>
+    <t>La Oficina de las Naciones Unidas de Servicios para Proyectos tiene como misión ayudar a las personas a mejorar sus condiciones de vida y a los países a lograr la paz y un desarrollo sostenible. Nos centramos en la implementación y estamos comprometidos tanto con los valores de las Naciones Unidas como con la eficiencia del sector privado.</t>
+  </si>
+  <si>
+    <t>UNIDIR</t>
+  </si>
+  <si>
+    <t>El Instituto de las Naciones Unidas de Investigación sobre el Desarme es un instituto autónomo de las Naciones Unidas financiado con contribuciones voluntarias. Como agente imparcial, el Instituto propone ideas y promueve medidas en materia de desarme y seguridad. UNIDIR trabaja —a nivel internacional, regional y local— con los estados, las organizaciones internacionales, la sociedad civil, el sector privado y la academia para crear y aplicar soluciones creativas que beneficien a todos los estados y pueblos.</t>
+  </si>
+  <si>
+    <t>UNITAR</t>
+  </si>
+  <si>
+    <t>El Instituto de las Naciones Unidas para la Formación Profesional y la Investigación es un organismo autónomo de las Naciones Unidas que se estableció en 1963. Es un órgano de formación. Tiene como mandato aumentar la eficacia de la labor de la Organización mediante la formación en diplomacia y de aumentar los efectos de las medidas nacionales mediante la sensibilización pública, educación y formación de los funcionarios de políticas públicas.</t>
+  </si>
+  <si>
+    <t>UNSSC</t>
+  </si>
+  <si>
+    <t>Sede en Torino (Italia)</t>
+  </si>
+  <si>
+    <t>La Escuela Superior del Personal del Sistema de las Naciones Unidas es la organización de educación del sistema de las Naciones Unidas. Diseña y ofrece programas de aprendizaje para el personal del sistema de las Naciones Unidas y sus socios. Contribuye a que la Organización sea más eficaz al fomentar una cultura común del liderazgo y la gestión en todo el sistema.</t>
+  </si>
+  <si>
+    <t>Organizaciones relacionadas</t>
+  </si>
+  <si>
+    <t>OIEA</t>
+  </si>
+  <si>
+    <t>El Organismo Internacional de Energía Atómica es una referencia mundial para la cooperación en el campo nuclear. La Agencia trabaja con los Estados miembros y una gran variedad de socios mundiales para promover el uso seguro y pacífico de las tecnologías nucleares.</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>La Organización Mundial del Comercio es un foro para que los gobiernos negocien acuerdos comerciales , y un lugar donde los Estados miembros tratan de resolver los problemas comerciales que tienen entre sí..</t>
+  </si>
+  <si>
+    <t>CTBTO</t>
+  </si>
+  <si>
+    <t>La Organización del Tratado de Prohibición Completa de los Ensayos Nucleares promueve este instrumento internacional (que aún no está en vigor) así como el diseño de un sistema de verificación para que sea operativo cuando entre en vigor.</t>
+  </si>
+  <si>
+    <t>OPAQ</t>
+  </si>
+  <si>
+    <t>Sede en La Haya (Países Bajos)</t>
+  </si>
+  <si>
+    <t>La Organización para la Prohibición de las Armas Químicas es el órgano ejecutivo de la Convención sobre las Armas Químicas, que entró en vigor en 1997. Los Estados miembros de la OPAQ trabajan conjuntamente para lograr un mundo libre de este tipo de arsenal.</t>
+  </si>
+  <si>
+    <t>OIM</t>
+  </si>
+  <si>
+    <t>La Organización Internacional para las Migraciones consiste en cerciorarse de una gestión ordenada y humana de la migración; promover la cooperación internacional sobre cuestiones migratorias; ayudar a encontrar soluciones prácticas a los problemas migratorios: y ofrecer asistencia humanitaria a los migrantes que lo necesitan, ya se trate de refugiados, de personas desplazadas o desarraigadas.</t>
+  </si>
+  <si>
+    <t>CMNUCC</t>
+  </si>
+  <si>
+    <t>Sede en Bonn (Alemania)</t>
+  </si>
+  <si>
+    <t>La Secretaría de la CMNUCC (ONU Cambio Climático) se estableció en 1992 cuando los países adoptaron la Convención Marco de las Naciones Unidas sobre el Cambio Climático (CMNUCC). Con la posterior adopción del Protocolo de Kyoto en 1997 y el Acuerdo de París en 2015, las Partes de estos tres acuerdos han venido reafirmando de manera progresiva el papel de la Secretaría como la entidad de la ONU encargada de apoyar la respuesta mundial a la amenaza del cambio climático.</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>El Centro de Comercio Internacional es la única agencia totalmente dedicada a apoyar la internacionalización de las pequeñas y medianas empresas (PYMES). Fundada en 1964, el CCI es la agencia conjunta de la Organización Mundial del Comercio y las Naciones Unidas.</t>
+  </si>
+  <si>
+    <t>Puedes consultar también el organigrama de las Naciones Unidas. </t>
   </si>
 </sst>
 </file>
@@ -397,12 +758,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,16 +803,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -482,9 +879,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -499,13 +893,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K25" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C3:K25" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K77" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="C3:K77" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB1B435E-5B5A-4325-B742-43F93F8E44E4}" name="OIG Español"/>
     <tableColumn id="2" xr3:uid="{3281292C-ECF8-47ED-A59F-6DD5680A01FF}" name="OIG Inglés"/>
-    <tableColumn id="3" xr3:uid="{9CEEFDF9-E18D-415C-B10C-A99BA25A7D2F}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7FB477C5-1CD0-4BCF-B1EA-9DE87FBBA647}" name="Descripción"/>
+    <tableColumn id="3" xr3:uid="{9CEEFDF9-E18D-415C-B10C-A99BA25A7D2F}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7FB477C5-1CD0-4BCF-B1EA-9DE87FBBA647}" name="Descripción" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E87879A5-0C7D-44F5-B4C8-7E4CB1C311F3}" name="Link"/>
     <tableColumn id="6" xr3:uid="{B03EA887-8D22-40E4-90D9-D5A84D31CF8D}" name="Tipo"/>
     <tableColumn id="7" xr3:uid="{FC5DA6F9-67F4-44BE-813A-C56D4B26C0D8}" name="Alcance"/>
@@ -517,24 +911,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B996E47A-D70B-4260-B7A7-E0B16B498536}" name="Tabla5" displayName="Tabla5" ref="C2:E40" totalsRowShown="0">
-  <autoFilter ref="C2:E40" xr:uid="{BAAE8D52-5408-4464-814A-BEEB931DE810}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B996E47A-D70B-4260-B7A7-E0B16B498536}" name="Tabla5" displayName="Tabla5" ref="C2:F50" totalsRowShown="0">
+  <autoFilter ref="C2:F50" xr:uid="{BAAE8D52-5408-4464-814A-BEEB931DE810}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B9294B55-FB80-4808-A6C1-C7A1374A8132}" name="OIG"/>
-    <tableColumn id="2" xr3:uid="{F8061DFA-214E-4707-BF52-764132DE4AFB}" name="Tipos de proyectos " dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6D383B68-5596-4654-9554-111F52AB0DA9}" name="Tipos de financiamiento" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F8061DFA-214E-4707-BF52-764132DE4AFB}" name="Tipos de proyectos " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A745665-7364-4E68-AE44-1AE495632C72}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6D383B68-5596-4654-9554-111F52AB0DA9}" name="Tipos de financiamiento" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BDE5A19-197C-4AFB-9FD4-4D17FF40D860}" name="Tabla2" displayName="Tabla2" ref="C2:F23" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="C2:F23" xr:uid="{5628BADD-54A3-42F9-B1EA-F29619F39907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BDE5A19-197C-4AFB-9FD4-4D17FF40D860}" name="Tabla2" displayName="Tabla2" ref="C2:F29" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="C2:F29" xr:uid="{5628BADD-54A3-42F9-B1EA-F29619F39907}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6DA87B2B-AD1E-4471-BD79-833BBB30B2DC}" name="OIG"/>
     <tableColumn id="2" xr3:uid="{4C66ED3D-DBCB-4B00-90D3-0981D373A864}" name="Link de proyectos"/>
-    <tableColumn id="3" xr3:uid="{10CBF3C1-F43E-4A90-8E46-803E2F728ED0}" name="API" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{10CBF3C1-F43E-4A90-8E46-803E2F728ED0}" name="API" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{07046CDA-7BC0-4A3E-8B65-FB69DD4DCAB7}" name="Excel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -838,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B1826-CF36-436D-9E27-82918DE6448E}">
-  <dimension ref="C3:K22"/>
+  <dimension ref="C3:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,18 +1245,19 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="9" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -876,65 +1272,65 @@
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="105" x14ac:dyDescent="0.25">
@@ -942,112 +1338,582 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,338 +1926,497 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E51-05FE-49C3-A536-8958958FC0F8}">
-  <dimension ref="C2:E32"/>
+  <dimension ref="C2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="9" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="240" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D9D21-5073-4FE2-AD03-920EEB5BC38B}">
-  <dimension ref="C4:F8"/>
+  <dimension ref="C4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
         <v>105</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{C217D985-8651-4AB3-B112-052BD29DC890}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{CA886280-0B7F-4827-B824-F4CB43759B16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A10F3-FB57-4686-8283-E6D91395D6BD}">
-  <dimension ref="C2:F21"/>
+  <dimension ref="C2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1421,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -1435,27 +2460,27 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1463,98 +2488,98 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
@@ -1562,54 +2587,54 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -1617,21 +2642,37 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="90" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83905BD0-30BA-4BCE-8ED8-1B5BA5B2B9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D810943D-C33D-4B66-8760-2F41E668B807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="228">
   <si>
     <t>OIG</t>
   </si>
@@ -670,9 +670,6 @@
     <t>La Escuela Superior del Personal del Sistema de las Naciones Unidas es la organización de educación del sistema de las Naciones Unidas. Diseña y ofrece programas de aprendizaje para el personal del sistema de las Naciones Unidas y sus socios. Contribuye a que la Organización sea más eficaz al fomentar una cultura común del liderazgo y la gestión en todo el sistema.</t>
   </si>
   <si>
-    <t>Organizaciones relacionadas</t>
-  </si>
-  <si>
     <t>OIEA</t>
   </si>
   <si>
@@ -721,7 +718,13 @@
     <t>El Centro de Comercio Internacional es la única agencia totalmente dedicada a apoyar la internacionalización de las pequeñas y medianas empresas (PYMES). Fundada en 1964, el CCI es la agencia conjunta de la Organización Mundial del Comercio y las Naciones Unidas.</t>
   </si>
   <si>
-    <t>Puedes consultar también el organigrama de las Naciones Unidas. </t>
+    <t>FVC</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>Fondo Verde para el Clima</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K77" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="C3:K77" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K61" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="C3:K61" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB1B435E-5B5A-4325-B742-43F93F8E44E4}" name="OIG Español"/>
     <tableColumn id="2" xr3:uid="{3281292C-ECF8-47ED-A59F-6DD5680A01FF}" name="OIG Inglés"/>
@@ -1233,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B1826-CF36-436D-9E27-82918DE6448E}">
-  <dimension ref="C3:K77"/>
+  <dimension ref="C3:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,62 +1668,152 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>199</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>201</v>
       </c>
       <c r="J32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="165" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>203</v>
       </c>
       <c r="J33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
@@ -1729,191 +1822,47 @@
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>205</v>
-      </c>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>206</v>
-      </c>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>207</v>
-      </c>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>208</v>
-      </c>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>209</v>
-      </c>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>210</v>
-      </c>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>187</v>
-      </c>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>211</v>
-      </c>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>212</v>
-      </c>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>163</v>
-      </c>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>213</v>
-      </c>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>217</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>218</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>225</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>226</v>
-      </c>
-      <c r="F77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D810943D-C33D-4B66-8760-2F41E668B807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537738D5-72E4-423C-BF5A-127489FFD648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="549">
   <si>
     <t>OIG</t>
   </si>
@@ -490,9 +490,6 @@
     <t>El Fondo de Población de las Naciones Unidas es la agencia de las Naciones Unidas líder en ofrecer un mundo en el que cada embarazo es deseado; cada nacimiento, seguro y el potencial de cada joven, desarrollado.</t>
   </si>
   <si>
-    <t>PNUMA</t>
-  </si>
-  <si>
     <t>Sede en Nairobi (Kenya)</t>
   </si>
   <si>
@@ -725,6 +722,972 @@
   </si>
   <si>
     <t>Fondo Verde para el Clima</t>
+  </si>
+  <si>
+    <t>Fondo Monetario Internacional</t>
+  </si>
+  <si>
+    <t>Organización Mundial de la Salud</t>
+  </si>
+  <si>
+    <t>Organización Internacional del Trabajo</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura</t>
+  </si>
+  <si>
+    <t>Fondo Internacional de Desarrollo Agrícola</t>
+  </si>
+  <si>
+    <t>Organización Marítina Internacional</t>
+  </si>
+  <si>
+    <t>Organización Meteorológica</t>
+  </si>
+  <si>
+    <t>Organización Mundial de la Propiedad Intelectual</t>
+  </si>
+  <si>
+    <t>Organización de Aviación Civil Internacional</t>
+  </si>
+  <si>
+    <t>Unión Internacional de Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas para el Desarrollo Industrial</t>
+  </si>
+  <si>
+    <t>Unión Postal Universal</t>
+  </si>
+  <si>
+    <t>Organización Mundial del Turismo</t>
+  </si>
+  <si>
+    <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Oficina de las Naciones Unidas para la Reducción del Riesgo de Desastres</t>
+  </si>
+  <si>
+    <t>Oficina de las Naciones Unidas de Servicios para Proyectos</t>
+  </si>
+  <si>
+    <t>Instituto de las Naciones Unidas de Investigación sobre el Desarme</t>
+  </si>
+  <si>
+    <t>Escuela Superior del Personal del Sistema de las Naciones Unidas</t>
+  </si>
+  <si>
+    <t>Organismo Internacional de Energía Atómica</t>
+  </si>
+  <si>
+    <t>Organización Mundial del Comercio</t>
+  </si>
+  <si>
+    <t>Organización del Tratado de Prohibición Completa de los Ensayos Nucleares</t>
+  </si>
+  <si>
+    <t>Organización para la Prohibición de las Armas Químicas </t>
+  </si>
+  <si>
+    <t>Organización Internacional para las Migraciones</t>
+  </si>
+  <si>
+    <t>Oficina de las Naciones Unidas contra la Droga y el Delito</t>
+  </si>
+  <si>
+    <t>Fondo de Población de las Naciones Unidas</t>
+  </si>
+  <si>
+    <t>Programa de Naciones Unidas para el Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas dedicada a la igualdad de género y empoderamiento de las mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNWomen </t>
+  </si>
+  <si>
+    <t>ONU Mujeres – Sede (unwomen.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de las Naciones Unidas </t>
+  </si>
+  <si>
+    <t>UNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF </t>
+  </si>
+  <si>
+    <t>UNEP - UN Environment Programme</t>
+  </si>
+  <si>
+    <t>ONUAmbiente</t>
+  </si>
+  <si>
+    <t>UNEP</t>
+  </si>
+  <si>
+    <t>Alianza Mundial para Vacunas e Inmunización (IFFI, International Finance Facility for Immunisation)</t>
+  </si>
+  <si>
+    <t>Banco Africano de Desarrollo y Comercio del Este y Sureste (PTA Bank)</t>
+  </si>
+  <si>
+    <t>Banco Africano de Importación y Exportación (Afreximbank)</t>
+  </si>
+  <si>
+    <t>Banco Árabe para el Desarrollo Económico en África</t>
+  </si>
+  <si>
+    <t>Banco Asiático de Desarrollo (ADB)</t>
+  </si>
+  <si>
+    <t>Banco Asiático de Inversión en Infraestructura (AIIB)</t>
+  </si>
+  <si>
+    <t>Banco Centroamericano de Integración Económica (BCIE)</t>
+  </si>
+  <si>
+    <t>Banco de Comercio y Desarrollo del Mar Negro (BSTDB)</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de África Oriental</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de América del Norte</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de los Estados del África Central</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo del África Occidental</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo del Caribe (CDB)</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo del Consejo de Europa (CEB)</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo Euroasiático (EDB)</t>
+  </si>
+  <si>
+    <t>Banco Europeo de Inversiones (BEI)</t>
+  </si>
+  <si>
+    <t>Banco Europeo para la Reconstrucción y el Desarrollo (BERD)</t>
+  </si>
+  <si>
+    <t>Banco Internacional de Inversiones (IIB)</t>
+  </si>
+  <si>
+    <t>Banco Islámico de Desarrollo (IDB)</t>
+  </si>
+  <si>
+    <t>Banco Nórdico de Inversión (NIB)</t>
+  </si>
+  <si>
+    <t>CAF-Banco de Desarrollo de América Latina (CAF)</t>
+  </si>
+  <si>
+    <t>Centro Técnico para la Cooperación Agrícola y Rural ACP-UE (CTA)</t>
+  </si>
+  <si>
+    <t>Comité Internacional de la Cruz Roja (ICRC)</t>
+  </si>
+  <si>
+    <t>Conferencia de las Naciones Unidas sobre Comercio y Desarrollo (UNCTAD)</t>
+  </si>
+  <si>
+    <t>Fondo árabe para desarrollo económico y social</t>
+  </si>
+  <si>
+    <t>Fondo de Población de las Naciones Unidas (UNFPA)</t>
+  </si>
+  <si>
+    <t>Fondo Financiero para el Desarrollo de los Países de la Cuenca del Plata (FONPLATA)</t>
+  </si>
+  <si>
+    <t>Fondo Internacional de Desarrollo Agrícola (IFAD)</t>
+  </si>
+  <si>
+    <t>Fondo Monetario Internacional (FMI)</t>
+  </si>
+  <si>
+    <t>Fondo OPEP para el Desarrollo Internacional (OFID)</t>
+  </si>
+  <si>
+    <t>Banco Africano de Desarrollo (AfDB)</t>
+  </si>
+  <si>
+    <t>Fondo Africano de Desarrollo (AfDF)</t>
+  </si>
+  <si>
+    <t>Fondo especial de Nigeria</t>
+  </si>
+  <si>
+    <t>Banco Interamericano de Desarrollo (BID)</t>
+  </si>
+  <si>
+    <t>BID Invest, anteriormente denominado Corporación Interamericana de Inversiones</t>
+  </si>
+  <si>
+    <t>BID Lab, anteriormente denominado Fondo Multilateral de Inversiones (FOMIN)</t>
+  </si>
+  <si>
+    <t>Banco Internacional de Reconstrucción y Fomento (IBRD)</t>
+  </si>
+  <si>
+    <t>Asociación Internacional de Fomento (IDA)</t>
+  </si>
+  <si>
+    <t>Corporación Financiera Internacional (IFC)</t>
+  </si>
+  <si>
+    <t>Organismo Multilateral de Garantía de Inversiones (MIGA)</t>
+  </si>
+  <si>
+    <t>Centro Internacional de Arreglo de Diferencias Relativas a Inversiones (CIADI)</t>
+  </si>
+  <si>
+    <t>Nuevo Banco de Desarrollo (NDB)</t>
+  </si>
+  <si>
+    <t>Oficina de Naciones Unidas para la Coordinación de Asuntos Humanitarios (OCHA)</t>
+  </si>
+  <si>
+    <t>Banco de Comercio y Desarrollo de la Organización de Cooperación Económica</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas para el Desarrollo Industrial (UNIDO)</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO)</t>
+  </si>
+  <si>
+    <t>Organización de las Naciones Unidas (ONU)</t>
+  </si>
+  <si>
+    <t>Organización Internacional de Derecho para el Desarrollo (IDLO)</t>
+  </si>
+  <si>
+    <t>Organización Internacional del Trabajo (OIT)</t>
+  </si>
+  <si>
+    <t>Organización Internacional para las Migraciones (IOM)</t>
+  </si>
+  <si>
+    <t>Organización Mundial de la Salud (OMS)</t>
+  </si>
+  <si>
+    <t>Organización Mundial del Comercio (OMC)</t>
+  </si>
+  <si>
+    <t>Organización para la Cooperación y el Desarrollo Económicos (OCDE)</t>
+  </si>
+  <si>
+    <t>Plan Colombo (CP)</t>
+  </si>
+  <si>
+    <t>Programa de las Naciones Unidas para el Desarrollo (PNUD)</t>
+  </si>
+  <si>
+    <t>Programa de las Naciones Unidas para el Medio Ambiente (UNEP)</t>
+  </si>
+  <si>
+    <t>Programa de Naciones Unidas para los Asentamientos Humanos (ONU-HABITAT)</t>
+  </si>
+  <si>
+    <t>Programa Mundial de Alimentos (WFP)</t>
+  </si>
+  <si>
+    <t>Unicef</t>
+  </si>
+  <si>
+    <t>ACTED</t>
+  </si>
+  <si>
+    <t>ActionAid International</t>
+  </si>
+  <si>
+    <t>Acuerdo Mundial - Agencia de Desarrollo Internacional48​</t>
+  </si>
+  <si>
+    <t>Agencia Adventista de Desarrollo y Recursos Asistenciales</t>
+  </si>
+  <si>
+    <t>Alianza por un Saneamiento Sostenible</t>
+  </si>
+  <si>
+    <t>Alivio de piedad (Mercy Relief)</t>
+  </si>
+  <si>
+    <t>Ayuda Cristiana</t>
+  </si>
+  <si>
+    <t>Ayuda en Acción</t>
+  </si>
+  <si>
+    <t>Colegio Germanoafgano de Gestión</t>
+  </si>
+  <si>
+    <t>AKDN</t>
+  </si>
+  <si>
+    <t>BRAC</t>
+  </si>
+  <si>
+    <t>Consejo Empresarial para la Paz</t>
+  </si>
+  <si>
+    <t>Camfed</t>
+  </si>
+  <si>
+    <t>CARE (agencia humanitaria)</t>
+  </si>
+  <si>
+    <t>Servicios de Alivio católico</t>
+  </si>
+  <si>
+    <t>Centro para la Seguridad y el Desarrollo</t>
+  </si>
+  <si>
+    <t>Centro para Víctimas de Tortura49​</t>
+  </si>
+  <si>
+    <t>Centro para Valores en Liderazgo50​</t>
+  </si>
+  <si>
+    <t>Cinco Talentos</t>
+  </si>
+  <si>
+    <t>Comité Central Mennonita</t>
+  </si>
+  <si>
+    <t>Compassion International</t>
+  </si>
+  <si>
+    <t>Cuidados de Dubai</t>
+  </si>
+  <si>
+    <t>Dando Esperanza a los Niños</t>
+  </si>
+  <si>
+    <t>Enseñanza para Todos</t>
+  </si>
+  <si>
+    <t>Empresas de Desarrollo Internacional</t>
+  </si>
+  <si>
+    <t>Equipos Médicos Internacionales</t>
+  </si>
+  <si>
+    <t>Fundación Afgana Lamia</t>
+  </si>
+  <si>
+    <t>Fundación CODESPA</t>
+  </si>
+  <si>
+    <t>Fundación Internacional para la Juventud</t>
+  </si>
+  <si>
+    <t>Fundación Keniana para la Ayuda</t>
+  </si>
+  <si>
+    <t>Fundación Seva</t>
+  </si>
+  <si>
+    <t>Gobiernos Locales por la Sostenibilidad (ICLEI)</t>
+  </si>
+  <si>
+    <t>Habitat for Humanity</t>
+  </si>
+  <si>
+    <t>Heifer Internacional</t>
+  </si>
+  <si>
+    <t>Helpage Internacional</t>
+  </si>
+  <si>
+    <t>HOPE Agencia de Desarrollo Internacional</t>
+  </si>
+  <si>
+    <t>Iniciativa estudiantil Rahel, con el proyecto OVC</t>
+  </si>
+  <si>
+    <t>Internacional Maltesa</t>
+  </si>
+  <si>
+    <t>Jugend Eine Welt</t>
+  </si>
+  <si>
+    <t>Luz para el Mundo</t>
+  </si>
+  <si>
+    <t>Manos Unidas</t>
+  </si>
+  <si>
+    <t>Médicos Sin Fronteras</t>
+  </si>
+  <si>
+    <t>Mercy Corps</t>
+  </si>
+  <si>
+    <t>Mujeres en Europa para un Futuro Común (WECF)</t>
+  </si>
+  <si>
+    <t>Niños de la Calle Internacional</t>
+  </si>
+  <si>
+    <t>No Más Sida</t>
+  </si>
+  <si>
+    <t>Oxfam</t>
+  </si>
+  <si>
+    <t>Paz Directa</t>
+  </si>
+  <si>
+    <t>Plan España</t>
+  </si>
+  <si>
+    <t>Renovación Mundial</t>
+  </si>
+  <si>
+    <t>Respuesta Rápida</t>
+  </si>
+  <si>
+    <t>Samaritan's Purse</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Swissaid</t>
+  </si>
+  <si>
+    <t>Terra Tech</t>
+  </si>
+  <si>
+    <t>TMSS51​</t>
+  </si>
+  <si>
+    <t>Todo lo que Podamos - Socorro y desarrollo metodista</t>
+  </si>
+  <si>
+    <t>Trickle Up (literalmente gotear hacia arriba)</t>
+  </si>
+  <si>
+    <t>WaterAid</t>
+  </si>
+  <si>
+    <t>World Vision</t>
+  </si>
+  <si>
+    <t>Minsterio Federal de Cooperación Económica y Desarrollo</t>
+  </si>
+  <si>
+    <t>Institución de Crédito para la Reconstruccón Kfw</t>
+  </si>
+  <si>
+    <t>Agencia Alemana de Cooperación Internacional GIZ</t>
+  </si>
+  <si>
+    <t>Fondo saudí para el desarrollo SDF</t>
+  </si>
+  <si>
+    <t>Comosión de Cascos Blancos</t>
+  </si>
+  <si>
+    <t>División de cooperación para el desarrollo</t>
+  </si>
+  <si>
+    <t>Agencia de Desarrollo Austrico ADA</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de Austria aws</t>
+  </si>
+  <si>
+    <t>Agencia de Desarrollo Internacional de Azerbaiyán</t>
+  </si>
+  <si>
+    <t>Ministerio de Asuntos exteriores</t>
+  </si>
+  <si>
+    <t>Comercio Exterior y desarrollo, Plan política belga para la cooperación al desarrollo</t>
+  </si>
+  <si>
+    <t>Cooperación Técnca Belga</t>
+  </si>
+  <si>
+    <t>Agencia Brasleña de Cooperación</t>
+  </si>
+  <si>
+    <t>Agencia Canadiense de Desarrollo Internacional</t>
+  </si>
+  <si>
+    <t>Centro de Investigación para el Desarrollo Internacional (IDRC)</t>
+  </si>
+  <si>
+    <t>Agencia de Cooperación Internacional de Chile (AGCI)</t>
+  </si>
+  <si>
+    <t>Agencia China para la Cooperación Internacional al Desarrollo (CIDCA</t>
+  </si>
+  <si>
+    <t>Agencia Coreana para la Cooperación Internacional (KOICA)</t>
+  </si>
+  <si>
+    <t>Agencia Danesa para el Desarrollo Internacional (DANIDA)</t>
+  </si>
+  <si>
+    <t>Agencia Egipcia de Asociación para el Desarrollo</t>
+  </si>
+  <si>
+    <t>Agencia Española de Cooperación Internacional para el Desarrollo (AECID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corporación del Reto del Milenio(MCC)</t>
+  </si>
+  <si>
+    <t>Agencia de los Estados Unidos para el Desarrollo Internacional (USAID)</t>
+  </si>
+  <si>
+    <t>Fundación Estadounidense para el Desarrollo de África (ADF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundación Interamericana (IAF) </t>
+  </si>
+  <si>
+    <t>Departamento de Cooperación Internacional para el Desarrollo (FINNIDA)</t>
+  </si>
+  <si>
+    <t>Agencia Francesa para el Desarrollo (AfD)</t>
+  </si>
+  <si>
+    <t>Expertos de Francia</t>
+  </si>
+  <si>
+    <t>Ministerio de Asuntos Exteriores</t>
+  </si>
+  <si>
+    <t>Organización para la Asistencia Inversora, Económica y Técnica de Irán</t>
+  </si>
+  <si>
+    <t>Ayuda Irlandesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ministerio de Asuntos Exteriores: Agencia Israelí para la Cooperación Internacional al Desarrollo (MASHAV)</t>
+  </si>
+  <si>
+    <t>Ministerio de Asuntos Exteriores: Programa italiano para la cooperación al desarrollo</t>
+  </si>
+  <si>
+    <t>Agencia Japonesa de Cooperación Internacional (JICA)</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de Japón</t>
+  </si>
+  <si>
+    <t>Banco Japonés de Cooperación Internacional (JBIC)</t>
+  </si>
+  <si>
+    <t>Fondo kuwaití para el desarrollo económico árabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencia de Desarrollo de Liechtenstein </t>
+  </si>
+  <si>
+    <t>Lux-Desarrollo</t>
+  </si>
+  <si>
+    <t>Agencia Mexicana de Cooperación Internacional para el Desarrollo (AMEXCID)</t>
+  </si>
+  <si>
+    <t>Agencia Neozelandesa para el Desarrollo Internacional (NZAid)</t>
+  </si>
+  <si>
+    <t>Ministerio de Cooperación al Desarrollo</t>
+  </si>
+  <si>
+    <t>Agencia Neerlandesa de Comercio Exterior y Desarrollo (NFTDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ministerio de Asuntos Exteriores: Programa de desarrollo internacional</t>
+  </si>
+  <si>
+    <t>Agencia Noruega para la Cooperación al Desarrollo (NORAD)</t>
+  </si>
+  <si>
+    <t>Ministerio de Asuntos Exteriores: Departamento de cooperación internacional</t>
+  </si>
+  <si>
+    <t>Instituto Camoens para la Cooperación y la Lengua (Camões - Instituto da Cooperação e da Língua, I.P.)</t>
+  </si>
+  <si>
+    <t>Programa de asistencia técnica de Pakistán</t>
+  </si>
+  <si>
+    <t>Agencia Palestina para la Cooperación Internacional(PICA)</t>
+  </si>
+  <si>
+    <t>Asistencia al Desarrollo (AOD)</t>
+  </si>
+  <si>
+    <t>Agencia Federal para la Comunidad de Estados Independientes, los Compatriotas que Viven en el Extranjero y la Cooperación Humanitaria Internacional (Rossotrudnichestvo)</t>
+  </si>
+  <si>
+    <t>Ayuda Eslovaca</t>
+  </si>
+  <si>
+    <t>Ministerio de Desarrollo Internacional (DFID)</t>
+  </si>
+  <si>
+    <t>Agencia Checa para el Desarrollo (CzDA)</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo de África del Sur (Development Bank of Southern Africa, DBSA</t>
+  </si>
+  <si>
+    <t>Suecia - Agencia Sueca Internacional de Cooperación al Desarrollo (SIDA)</t>
+  </si>
+  <si>
+    <t>Helvetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencia Suiza para Desarrollo y Cooperación (conocida en español como COSUDE, en inglés como SDC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agencia Tailandesa de Cooperación Internacional (TICA)</t>
+  </si>
+  <si>
+    <t>Fondo de cooperación y desarrollo internacional (ICDF)</t>
+  </si>
+  <si>
+    <t>Agencia Turca de Coordinación y Cooperación TiKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección General de Cooperación Internacional y Desarrollo EuropeAid  </t>
+  </si>
+  <si>
+    <t>Dirección General de Protección Civil y Ayuda Humanitaria (ECHO)</t>
+  </si>
+  <si>
+    <t>Organismos Internacionales de Ayuda al Desarrollo</t>
+  </si>
+  <si>
+    <t>Organismos No Gubernamentales</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
+  </si>
+  <si>
+    <t>https://iffim.org</t>
+  </si>
+  <si>
+    <t>https://www.tdbgroup.org</t>
+  </si>
+  <si>
+    <t>https://www.afreximbank.com</t>
+  </si>
+  <si>
+    <t>https://www.adb.org</t>
+  </si>
+  <si>
+    <t>https://www.aiib.org/en/index.html</t>
+  </si>
+  <si>
+    <t>https://www.bcie.org</t>
+  </si>
+  <si>
+    <t>https://www.bstdb.org</t>
+  </si>
+  <si>
+    <t>https://www.boad.org</t>
+  </si>
+  <si>
+    <t>https://www.caribank.org</t>
+  </si>
+  <si>
+    <t>https://coebank.org/en/</t>
+  </si>
+  <si>
+    <t>https://eabr.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.ebrd.com/home</t>
+  </si>
+  <si>
+    <t>https://iib.int/en</t>
+  </si>
+  <si>
+    <t>https://www.isdb.org</t>
+  </si>
+  <si>
+    <t>https://www.nib.int</t>
+  </si>
+  <si>
+    <t>https://www.caf.com</t>
+  </si>
+  <si>
+    <t>https://www.cta.int/en/</t>
+  </si>
+  <si>
+    <t>https://www.icrc.org/es/home</t>
+  </si>
+  <si>
+    <t>http://www.exteriores.gob.es/RepresentacionesPermanentes/OficinadelasNacionesUnidas/es/quees2/Paginas/Otros%20Organismos%20y%20Fondos/UNCTAD.aspx</t>
+  </si>
+  <si>
+    <t>http://www.reingex.com/Fondo-Arabe.shtml</t>
+  </si>
+  <si>
+    <t>https://www.unfpa.org</t>
+  </si>
+  <si>
+    <t>https://www.fonplata.org/es</t>
+  </si>
+  <si>
+    <t>https://www.ifad.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/external/index.htm</t>
+  </si>
+  <si>
+    <t>https://opecfund.org</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en</t>
+  </si>
+  <si>
+    <t>https://www.afdb.org/en/about-us/corporate-information/nigeria-trust-fund-ntf</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/acerca-del-bid/financiamiento-del-bid/financiamiento-del-bid%2C6028.html</t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es/resources-businesses/fondo-multilateral-de-inversiones</t>
+  </si>
+  <si>
+    <t>https://www.bancomundial.org/es/who-we-are/ibrd</t>
+  </si>
+  <si>
+    <t>https://ida.worldbank.org</t>
+  </si>
+  <si>
+    <t>https://www.ifc.org/wps/wcm/connect/multilingual_ext_content/ifc_external_corporate_site/home_es</t>
+  </si>
+  <si>
+    <t>https://www.miga.org</t>
+  </si>
+  <si>
+    <t>https://icsid.worldbank.org/ICSID/Index.jsp</t>
+  </si>
+  <si>
+    <t>https://www.ndb.int</t>
+  </si>
+  <si>
+    <t>https://www.unocha.org//</t>
+  </si>
+  <si>
+    <t>http://www.eco.int</t>
+  </si>
+  <si>
+    <t>https://www.unido.org</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/home/es/</t>
+  </si>
+  <si>
+    <t>https://www.un.org</t>
+  </si>
+  <si>
+    <t>https://www.idlo.int</t>
+  </si>
+  <si>
+    <t>http://www.ilo.org/global/lang--es/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.iom.int</t>
+  </si>
+  <si>
+    <t>https://www.who.int/es/</t>
+  </si>
+  <si>
+    <t>https://www.wto.org</t>
+  </si>
+  <si>
+    <t>http://www.oecd.org</t>
+  </si>
+  <si>
+    <t>https://colombo-plan.org</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/content/undp/es/home/</t>
+  </si>
+  <si>
+    <t>https://www.unep.org</t>
+  </si>
+  <si>
+    <t>https://es.unhabitat.org</t>
+  </si>
+  <si>
+    <t>https://www.wfp.org</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org</t>
+  </si>
+  <si>
+    <t>https://www.acted.org/en/</t>
+  </si>
+  <si>
+    <t>https://actionaid.org</t>
+  </si>
+  <si>
+    <t>https://worldaccord.org</t>
+  </si>
+  <si>
+    <t>https://adra.org</t>
+  </si>
+  <si>
+    <t>https://www.susana.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.mercyrelief.org</t>
+  </si>
+  <si>
+    <t>https://ayudaenaccion.org/ong/</t>
+  </si>
+  <si>
+    <t>https://www.akdn.org</t>
+  </si>
+  <si>
+    <t>http://www.brac.net</t>
+  </si>
+  <si>
+    <t>https://camfed.org</t>
+  </si>
+  <si>
+    <t>https://www.care-international.org</t>
+  </si>
+  <si>
+    <t>https://www.crsespanol.org</t>
+  </si>
+  <si>
+    <t>https://www.cvt.org</t>
+  </si>
+  <si>
+    <t>https://cvl.com.ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.mcclaca.org/es/</t>
+  </si>
+  <si>
+    <t>https://www.compassion.es</t>
+  </si>
+  <si>
+    <t>https://lamia.org</t>
+  </si>
+  <si>
+    <t>https://www.codespa.org</t>
+  </si>
+  <si>
+    <t>https://www.seva.org/site/SPageServer/;jsessionid=00000000.app20098b?NONCE_TOKEN=D55F7311D4D79302D1690749BD99E477</t>
+  </si>
+  <si>
+    <t>https://iclei.org</t>
+  </si>
+  <si>
+    <t>https://www.habitat.org</t>
+  </si>
+  <si>
+    <t>http://www.helpagela.org</t>
+  </si>
+  <si>
+    <t>https://www.malteser-international.org/en.html</t>
+  </si>
+  <si>
+    <t>https://en.jugendeinewelt.at</t>
+  </si>
+  <si>
+    <t>https://www.manosunidas.org</t>
+  </si>
+  <si>
+    <t>https://www.msf.es</t>
+  </si>
+  <si>
+    <t>https://www.mercycorps.org</t>
+  </si>
+  <si>
+    <t>https://www.wecf.org</t>
+  </si>
+  <si>
+    <t>https://www.oxfam.org/es</t>
+  </si>
+  <si>
+    <t>https://plan-international.org</t>
+  </si>
+  <si>
+    <t>https://www.samaritanspurse.org</t>
+  </si>
+  <si>
+    <t>https://www.savethechildren.org</t>
+  </si>
+  <si>
+    <t>https://tmss-bd.org</t>
+  </si>
+  <si>
+    <t>https://trickleup.org</t>
+  </si>
+  <si>
+    <t>https://www.wateraid.org/?global=1</t>
+  </si>
+  <si>
+    <t>https://www.wvi.org</t>
+  </si>
+  <si>
+    <t>ONUMUJERES</t>
+  </si>
+  <si>
+    <t>El Fondo para la Igualdad de Género (FIG) tiene un propósito principal: apoyar a las organizaciones nacionales de la sociedad civil lideradas por mujeres para lograr el empoderamiento económico y político de las mujeres y los Objetivos de Desarrollo Sostenible (ODS).</t>
+  </si>
+  <si>
+    <t>Fondo de modelo único de donación global</t>
+  </si>
+  <si>
+    <t>Eliminar la violencia contra la mujer</t>
+  </si>
+  <si>
+    <t>El Fondo Fiduciario de la ONU para Eliminar la Violencia contra la Mujer (Fondo Fiduciario de la ONU) refleja la conciencia mundial de que la violencia contra las mujeres no es inevitable ni aceptable. El Fondo Fiduciario de la ONU es uno de los principales mecanismos globales de concesión de fondos exclusivamente dedicado a abordar la violencia contra mujeres y niñas en todas sus formas. Respalda iniciativas efectivas que demuestran que la violencia contra mujeres y niñas puede tratarse sistemáticamente, mitigarse y, con dedicación, eliminarse.</t>
+  </si>
+  <si>
+    <t>Fondo Fiduciario de la ONU para Eliminar la Violencia contra la Mujer | ONU Mujeres – Sede (unwomen.org)</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Fondo para la Igualdad de Género | Fondos fiduciarios | ONU Mujeres – Sede (unwomen.org)</t>
+  </si>
+  <si>
+    <t>Fondo flexible</t>
+  </si>
+  <si>
+    <t>Flexible Funding | World Food Programme (wfp.org)</t>
+  </si>
+  <si>
+    <t>Apoyo en desastres y situaciones críticas</t>
+  </si>
+  <si>
+    <t>Pequeñas donaciones</t>
   </si>
 </sst>
 </file>
@@ -775,7 +1738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -783,12 +1746,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -821,24 +1799,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -847,6 +1825,12 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -865,6 +1849,12 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -896,13 +1886,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K61" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="C3:K61" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E2B598-F9CB-4FA7-B6B5-A1279FEE64DB}" name="Tabla1" displayName="Tabla1" ref="C3:K227" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="C3:K227" xr:uid="{544A3E02-8742-4BE7-BE84-C27864AC2BFC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB1B435E-5B5A-4325-B742-43F93F8E44E4}" name="OIG Español"/>
     <tableColumn id="2" xr3:uid="{3281292C-ECF8-47ED-A59F-6DD5680A01FF}" name="OIG Inglés"/>
-    <tableColumn id="3" xr3:uid="{9CEEFDF9-E18D-415C-B10C-A99BA25A7D2F}" name="Nombre" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7FB477C5-1CD0-4BCF-B1EA-9DE87FBBA647}" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9CEEFDF9-E18D-415C-B10C-A99BA25A7D2F}" name="Nombre" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7FB477C5-1CD0-4BCF-B1EA-9DE87FBBA647}" name="Descripción" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{E87879A5-0C7D-44F5-B4C8-7E4CB1C311F3}" name="Link"/>
     <tableColumn id="6" xr3:uid="{B03EA887-8D22-40E4-90D9-D5A84D31CF8D}" name="Tipo"/>
     <tableColumn id="7" xr3:uid="{FC5DA6F9-67F4-44BE-813A-C56D4B26C0D8}" name="Alcance"/>
@@ -914,25 +1904,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B996E47A-D70B-4260-B7A7-E0B16B498536}" name="Tabla5" displayName="Tabla5" ref="C2:F50" totalsRowShown="0">
-  <autoFilter ref="C2:F50" xr:uid="{BAAE8D52-5408-4464-814A-BEEB931DE810}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B996E47A-D70B-4260-B7A7-E0B16B498536}" name="Tabla5" displayName="Tabla5" ref="C2:G50" totalsRowShown="0">
+  <autoFilter ref="C2:G50" xr:uid="{BAAE8D52-5408-4464-814A-BEEB931DE810}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B9294B55-FB80-4808-A6C1-C7A1374A8132}" name="OIG"/>
     <tableColumn id="2" xr3:uid="{F8061DFA-214E-4707-BF52-764132DE4AFB}" name="Tipos de proyectos " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3A745665-7364-4E68-AE44-1AE495632C72}" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6D383B68-5596-4654-9554-111F52AB0DA9}" name="Tipos de financiamiento" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3A745665-7364-4E68-AE44-1AE495632C72}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6D383B68-5596-4654-9554-111F52AB0DA9}" name="Tipos de financiamiento" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4F534908-1737-4E15-B91F-4D2EDFD6494E}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BDE5A19-197C-4AFB-9FD4-4D17FF40D860}" name="Tabla2" displayName="Tabla2" ref="C2:F29" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BDE5A19-197C-4AFB-9FD4-4D17FF40D860}" name="Tabla2" displayName="Tabla2" ref="C2:F29" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="C2:F29" xr:uid="{5628BADD-54A3-42F9-B1EA-F29619F39907}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6DA87B2B-AD1E-4471-BD79-833BBB30B2DC}" name="OIG"/>
     <tableColumn id="2" xr3:uid="{4C66ED3D-DBCB-4B00-90D3-0981D373A864}" name="Link de proyectos"/>
-    <tableColumn id="3" xr3:uid="{10CBF3C1-F43E-4A90-8E46-803E2F728ED0}" name="API" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{10CBF3C1-F43E-4A90-8E46-803E2F728ED0}" name="API" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{07046CDA-7BC0-4A3E-8B65-FB69DD4DCAB7}" name="Excel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1236,20 +2227,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B1826-CF36-436D-9E27-82918DE6448E}">
-  <dimension ref="C3:K61"/>
+  <dimension ref="C3:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
@@ -1404,7 +2395,7 @@
       <c r="F8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H8" t="s">
@@ -1421,6 +2412,9 @@
       <c r="C9" t="s">
         <v>98</v>
       </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1444,6 +2438,9 @@
       <c r="C10" t="s">
         <v>144</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>145</v>
       </c>
@@ -1452,6 +2449,9 @@
       <c r="C11" t="s">
         <v>146</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>148</v>
       </c>
@@ -1461,310 +2461,415 @@
     </row>
     <row r="12" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>151</v>
       </c>
-      <c r="J12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
         <v>154</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
         <v>159</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="270" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
         <v>162</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
         <v>165</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
         <v>170</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J20" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
         <v>181</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
         <v>189</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" t="s">
         <v>192</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="3:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="105" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
         <v>199</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="165" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="J33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" t="s">
         <v>215</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J39" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -1784,101 +2889,2062 @@
     </row>
     <row r="43" spans="3:10" ht="150" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" t="s">
         <v>220</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J43" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s">
         <v>225</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="13"/>
+      <c r="H49" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="13"/>
+      <c r="H54" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="13"/>
+      <c r="H55" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="13"/>
+      <c r="H56" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F61" s="1"/>
+      <c r="G61" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E130" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="135" spans="5:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E160" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E162" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E164" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E165" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E166" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E167" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E168" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E169" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E170" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E171" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E172" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E173" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E174" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E175" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E176" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E177" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E178" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E179" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E180" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E181" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E185" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E189" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E190" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="191" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="196" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E196" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="197" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E197" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E198" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="199" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="200" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E200" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="201" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E201" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E202" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E203" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="204" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E204" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="205" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="206" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E206" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="207" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E207" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="208" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E208" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E209" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="210" spans="5:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E210" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="211" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E211" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="213" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E213" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E214" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="215" spans="5:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="E215" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E216" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="217" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E217" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="218" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E218" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="219" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E219" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F219" s="1"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="220" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E221" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="5:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E222" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E223" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E224" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E225" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F225" s="1"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E226" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" s="1"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E227" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="12" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" display="https://www.unwomen.org/es" xr:uid="{EC65622C-6E9A-4B31-BB63-D3BB61BD89E1}"/>
+    <hyperlink ref="G12" r:id="rId2" display="https://www.unenvironment.org/es" xr:uid="{4A49310D-E9AC-4A8B-9136-6C4E0731DC7A}"/>
+    <hyperlink ref="G46" r:id="rId3" xr:uid="{87A0969B-31A9-468E-8145-423312DC1897}"/>
+    <hyperlink ref="G92" r:id="rId4" xr:uid="{56CDE49C-3713-40A0-82D2-E379DB3ACCF0}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{6F65CC9F-94FD-4F91-AE26-947B5659856C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E51-05FE-49C3-A536-8958958FC0F8}">
-  <dimension ref="C2:F42"/>
+  <dimension ref="C2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +4954,7 @@
     <col min="6" max="6" width="33.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1901,8 +4967,11 @@
       <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +4982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +4993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +5004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +5012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1951,7 +5020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1959,7 +5028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +5036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +5044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +5055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +5066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +5077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +5088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +5096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +5232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>105</v>
       </c>
@@ -2177,7 +5246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>105</v>
       </c>
@@ -2188,7 +5257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>105</v>
       </c>
@@ -2199,7 +5268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>105</v>
       </c>
@@ -2210,9 +5279,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="135" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>131</v>
@@ -2221,9 +5290,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>135</v>
@@ -2232,9 +5301,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>136</v>
@@ -2243,9 +5312,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>138</v>
@@ -2254,9 +5323,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" ht="90" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>140</v>
@@ -2265,9 +5334,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>142</v>
@@ -2276,11 +5345,67 @@
         <v>143</v>
       </c>
     </row>
+    <row r="43" spans="3:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G44" r:id="rId1" display="https://www.unwomen.org/es/trust-funds/un-trust-fund-to-end-violence-against-women" xr:uid="{F0C29EBC-A109-47FA-A0EF-128CD637F793}"/>
+    <hyperlink ref="G43" r:id="rId2" display="https://www.unwomen.org/es/trust-funds/fund-for-gender-equality" xr:uid="{51431CB8-2217-4BF9-B4D8-6926BBCC895B}"/>
+    <hyperlink ref="G45" r:id="rId3" display="https://www.wfp.org/flexible-funding" xr:uid="{DB197CFC-9061-4260-8152-CACA7B6C6A83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2289,8 +5414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D9D21-5073-4FE2-AD03-920EEB5BC38B}">
   <dimension ref="C4:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A10F3-FB57-4686-8283-E6D91395D6BD}">
   <dimension ref="C2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/BD Data global.xlsx
+++ b/BD Data global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537738D5-72E4-423C-BF5A-127489FFD648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2BA0B-63BB-40FC-B66B-83065E0D294E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C92782B5-7E2F-429B-9820-EE5E638D4FB1}"/>
   </bookViews>
@@ -2230,7 +2230,7 @@
   <dimension ref="C3:K227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E51-05FE-49C3-A536-8958958FC0F8}">
   <dimension ref="C2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -5414,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D9D21-5073-4FE2-AD03-920EEB5BC38B}">
   <dimension ref="C4:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5489,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A10F3-FB57-4686-8283-E6D91395D6BD}">
   <dimension ref="C2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
